--- a/Excel103ExtraPractice-01.xlsx
+++ b/Excel103ExtraPractice-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57de5c48f32aaca3/OfficeNewb/Videos/MicrosoftOffice/ExcelCompleteCourse/Exercise Files/ExtraPracticeFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="8_{BCD23508-A19A-403B-B650-B3CF305CC1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA82ADF-D288-4481-AC33-0D1BA36AF90D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187C2569-40DF-4E02-B1F0-F30E331855EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C504889-49C9-40B1-AAA2-560E668D4FD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9" xr2:uid="{9C504889-49C9-40B1-AAA2-560E668D4FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="EXCEL 103 PRACTICE" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -92,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="860">
   <si>
     <t>ALFKI</t>
   </si>
@@ -3020,7 +3019,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3039,7 +3038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -3117,7 +3115,121 @@
     <cellStyle name="Normal_Customer Info" xfId="3" xr:uid="{5B29114F-3462-423F-BB2A-9DE6CDF9AB03}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3563,51 +3675,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -6225,11 +6292,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51B56F0-2795-425A-9F95-630BE21B6E88}" name="Table2" displayName="Table2" ref="B9:D20" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51B56F0-2795-425A-9F95-630BE21B6E88}" name="Table2" displayName="Table2" ref="B9:D20" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="B9:D20" xr:uid="{7EF28A09-475B-4A8C-844E-C16FB2512675}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E4E64CFB-9945-4C15-A551-B8D7EF06A537}" name="PROJECTS"/>
-    <tableColumn id="2" xr3:uid="{D1AB6584-6930-421A-AA98-1EA108A173B7}" name="PERCENTAGE" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{D1AB6584-6930-421A-AA98-1EA108A173B7}" name="PERCENTAGE" dataDxfId="28" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{7FA28F0A-B617-4825-892A-86E0AF338E4A}" name="STATUS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6237,16 +6304,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E96C941D-2748-4BFA-9175-20DE8D82015E}" name="Table28" displayName="Table28" ref="B9:E20" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E96C941D-2748-4BFA-9175-20DE8D82015E}" name="Table28" displayName="Table28" ref="B9:E20" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B9:E20" xr:uid="{7EF28A09-475B-4A8C-844E-C16FB2512675}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E29561B7-DC0C-4930-BB09-664400E9B874}" name="PROJECTS"/>
-    <tableColumn id="5" xr3:uid="{7618AB37-5B72-40A8-8C15-9DE087F8CB9F}" name="DUE DATE" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{7618AB37-5B72-40A8-8C15-9DE087F8CB9F}" name="DUE DATE" dataDxfId="7">
       <calculatedColumnFormula>TODAY()+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A55012A-8882-4F48-BB58-C8756D3DDB37}" name="PERCENTAGE" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{894B24EC-5522-489C-992E-2FE14787EBB4}" name="STATUS">
-      <calculatedColumnFormula>IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED"))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{6A55012A-8882-4F48-BB58-C8756D3DDB37}" name="PERCENTAGE" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{894B24EC-5522-489C-992E-2FE14787EBB4}" name="STATUS" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.CONCAT(IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6254,18 +6321,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CAEF6BB-F739-4062-A2C3-CA5AEB251540}" name="CustomerInfo" displayName="CustomerInfo" ref="A1:I92" totalsRowShown="0" dataDxfId="15" tableBorderDxfId="14" dataCellStyle="Normal_Customer Info">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CAEF6BB-F739-4062-A2C3-CA5AEB251540}" name="CustomerInfo" displayName="CustomerInfo" ref="A1:I92" totalsRowShown="0" dataDxfId="27" tableBorderDxfId="26" dataCellStyle="Normal_Customer Info">
   <autoFilter ref="A1:I92" xr:uid="{33761F1C-CD1E-4D9D-A116-776D8C10A0F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B21E4DF-1BE9-442C-91B6-5D982E20EAAF}" name="Customer ID" dataDxfId="13" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="2" xr3:uid="{B2303E18-46EF-4012-AFFF-2F36313522E1}" name="Company Name" dataDxfId="12" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="3" xr3:uid="{0EB485C1-E027-4E44-9816-163BE46CC5BD}" name="Contact Name" dataDxfId="11" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="5" xr3:uid="{1CD1DFB3-CC11-4FF5-BE05-FBD86F1E03DC}" name="Address" dataDxfId="10" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="6" xr3:uid="{6F40B2DC-786B-44FB-BF57-27C1F3C11A50}" name="City" dataDxfId="9" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="7" xr3:uid="{BE59FE62-06B3-4539-AAEF-4B233706746D}" name="Region" dataDxfId="8" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="8" xr3:uid="{353BC7A9-288B-485C-BD71-CE2CCA02F728}" name="Postal Code" dataDxfId="7" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="9" xr3:uid="{0F98A9A0-D426-491A-8D7E-9B7649B52B1D}" name="Country" dataDxfId="6" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="10" xr3:uid="{0B3205FC-9D0A-4B7A-9CFA-900C03ED71FB}" name="Phone" dataDxfId="5" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="1" xr3:uid="{0B21E4DF-1BE9-442C-91B6-5D982E20EAAF}" name="Customer ID" dataDxfId="25" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="2" xr3:uid="{B2303E18-46EF-4012-AFFF-2F36313522E1}" name="Company Name" dataDxfId="24" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="3" xr3:uid="{0EB485C1-E027-4E44-9816-163BE46CC5BD}" name="Contact Name" dataDxfId="23" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="5" xr3:uid="{1CD1DFB3-CC11-4FF5-BE05-FBD86F1E03DC}" name="Address" dataDxfId="22" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="6" xr3:uid="{6F40B2DC-786B-44FB-BF57-27C1F3C11A50}" name="City" dataDxfId="21" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="7" xr3:uid="{BE59FE62-06B3-4539-AAEF-4B233706746D}" name="Region" dataDxfId="20" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="8" xr3:uid="{353BC7A9-288B-485C-BD71-CE2CCA02F728}" name="Postal Code" dataDxfId="19" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="9" xr3:uid="{0F98A9A0-D426-491A-8D7E-9B7649B52B1D}" name="Country" dataDxfId="18" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="10" xr3:uid="{0B3205FC-9D0A-4B7A-9CFA-900C03ED71FB}" name="Phone" dataDxfId="17" dataCellStyle="Normal_Customer Info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6279,11 +6346,15 @@
     <tableColumn id="2" xr3:uid="{E70E2EB2-D96E-4DF5-BC55-78AA6F7EDC88}" name="CLASS"/>
     <tableColumn id="3" xr3:uid="{E2D5E53C-F135-4D8C-AE67-B7149C399860}" name="BRANCH"/>
     <tableColumn id="4" xr3:uid="{B30C424E-11CD-470B-92EB-D5D54D805653}" name="YEAR"/>
-    <tableColumn id="5" xr3:uid="{88DAC759-628A-41A0-8715-0ED75C5C3082}" name="LEVEL CODE" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{88DAC759-628A-41A0-8715-0ED75C5C3082}" name="LEVEL CODE" dataDxfId="16">
       <calculatedColumnFormula>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9B352CE-4C3E-4CEE-89A5-9D991E3DE954}" name="LEVEL"/>
-    <tableColumn id="7" xr3:uid="{56FB84C4-842C-45D9-B9B8-56E1C80F2C98}" name="CLASS NAME"/>
+    <tableColumn id="6" xr3:uid="{D9B352CE-4C3E-4CEE-89A5-9D991E3DE954}" name="LEVEL" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{56FB84C4-842C-45D9-B9B8-56E1C80F2C98}" name="CLASS NAME" dataDxfId="0">
+      <calculatedColumnFormula>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6293,7 +6364,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABB36226-4DEB-4AA0-8FF0-40A243373A73}" name="Table4" displayName="Table4" ref="B25:C29" totalsRowShown="0">
   <autoFilter ref="B25:C29" xr:uid="{E7DC5DC1-B19A-4360-A7B3-4F8DA22B397E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3944DD68-417D-492E-BCB1-3392F6FE7BE3}" name="LEVEL CODE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3944DD68-417D-492E-BCB1-3392F6FE7BE3}" name="LEVEL CODE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{39DA51BD-1853-4265-B942-70D42DC20F6D}" name="LEVEL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6307,7 +6378,7 @@
     <sortCondition ref="E25:E30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{334C9C64-485B-403E-B9C3-88E194C4081C}" name="CLASS CODE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{334C9C64-485B-403E-B9C3-88E194C4081C}" name="CLASS CODE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{1E32367B-22DC-4FA7-9191-F28D5A07A69A}" name="CLASS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6321,8 +6392,8 @@
     <sortCondition ref="B7:B127"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8E09452A-7B67-4C48-855D-CFBD7204DD60}" name="MOVIE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C278F0A8-15A3-422C-A7A5-B3194F40A299}" name="GROSS" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{8E09452A-7B67-4C48-855D-CFBD7204DD60}" name="MOVIE" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C278F0A8-15A3-422C-A7A5-B3194F40A299}" name="GROSS" dataDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{1EC25A71-CFAD-4981-86D7-F95D30A8DD08}" name="YEAR"/>
     <tableColumn id="4" xr3:uid="{224F018D-7E96-4C67-952B-CD3DDA3E031B}" name="RATING"/>
   </tableColumns>
@@ -6630,9 +6701,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6644,406 +6715,757 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="10" width="3.42578125" customWidth="1"/>
+    <col min="3" max="10" width="3.453125" customWidth="1"/>
     <col min="11" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7265625" customWidth="1"/>
+    <col min="18" max="18" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.54296875" customWidth="1"/>
+    <col min="21" max="21" width="4.7265625" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:27" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>849</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="H7" s="19">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="H7" s="18">
         <v>1</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>1</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>848</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <f>H7*J7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
+    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19">
         <f>H7*J7</f>
         <v>1</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>3</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>4</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <v>5</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="30">
         <v>6</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <v>7</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="30">
         <v>8</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="30">
         <v>9</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <v>10</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="30">
         <v>11</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="30">
         <v>12</v>
       </c>
-      <c r="R9" s="44" t="s">
+      <c r="R9" s="43" t="s">
         <v>855</v>
       </c>
-      <c r="S9" s="44"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="32">
+      <c r="S9" s="43"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B10" s="31">
         <v>1</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="V10" s="35" t="s">
+      <c r="C10" s="21">
+        <f t="dataTable" ref="C10:N21" dt2D="1" dtr="1" r1="H7" r2="J7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22">
+        <v>5</v>
+      </c>
+      <c r="H10" s="22">
+        <v>6</v>
+      </c>
+      <c r="I10" s="22">
+        <v>7</v>
+      </c>
+      <c r="J10" s="22">
+        <v>8</v>
+      </c>
+      <c r="K10" s="22">
+        <v>9</v>
+      </c>
+      <c r="L10" s="22">
+        <v>10</v>
+      </c>
+      <c r="M10" s="22">
+        <v>11</v>
+      </c>
+      <c r="N10" s="23">
+        <v>12</v>
+      </c>
+      <c r="V10" s="34" t="s">
         <v>857</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="34" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="38">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="N11" s="27"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11" s="26">
+        <v>24</v>
+      </c>
       <c r="R11" t="s">
         <v>851</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="11">
         <v>2000</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-    </row>
-    <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32">
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+    </row>
+    <row r="12" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="31">
         <v>3</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
+      <c r="C12" s="24">
+        <v>3</v>
+      </c>
+      <c r="D12" s="25">
+        <v>6</v>
+      </c>
+      <c r="E12" s="25">
+        <v>9</v>
+      </c>
+      <c r="F12" s="25">
+        <v>12</v>
+      </c>
+      <c r="G12" s="25">
+        <v>15</v>
+      </c>
+      <c r="H12" s="25">
+        <v>18</v>
+      </c>
+      <c r="I12" s="25">
+        <v>21</v>
+      </c>
+      <c r="J12" s="25">
+        <v>24</v>
+      </c>
+      <c r="K12" s="25">
+        <v>27</v>
+      </c>
+      <c r="L12" s="25">
+        <v>30</v>
+      </c>
+      <c r="M12" s="25">
+        <v>33</v>
+      </c>
+      <c r="N12" s="26">
+        <v>36</v>
+      </c>
       <c r="R12" t="s">
         <v>852</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="32">
         <v>0.09</v>
       </c>
-      <c r="V12" s="36">
+      <c r="V12" s="35">
         <f>FV(S12/S13,S14*S13,,-S11)</f>
         <v>4902.7141562496363</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="41">
         <v>5</v>
       </c>
-      <c r="X12" s="42">
+      <c r="X12" s="41">
         <v>10</v>
       </c>
-      <c r="Y12" s="42">
+      <c r="Y12" s="41">
         <v>15</v>
       </c>
-      <c r="Z12" s="42">
+      <c r="Z12" s="41">
         <v>20</v>
       </c>
-      <c r="AA12" s="42">
+      <c r="AA12" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="32">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B13" s="31">
         <v>4</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="C13" s="24">
+        <v>4</v>
+      </c>
+      <c r="D13" s="25">
+        <v>8</v>
+      </c>
+      <c r="E13" s="25">
+        <v>12</v>
+      </c>
+      <c r="F13" s="25">
+        <v>16</v>
+      </c>
+      <c r="G13" s="25">
+        <v>20</v>
+      </c>
+      <c r="H13" s="25">
+        <v>24</v>
+      </c>
+      <c r="I13" s="25">
+        <v>28</v>
+      </c>
+      <c r="J13" s="25">
+        <v>32</v>
+      </c>
+      <c r="K13" s="25">
+        <v>36</v>
+      </c>
+      <c r="L13" s="25">
+        <v>40</v>
+      </c>
+      <c r="M13" s="25">
+        <v>44</v>
+      </c>
+      <c r="N13" s="26">
+        <v>48</v>
+      </c>
       <c r="R13" t="s">
         <v>853</v>
       </c>
       <c r="S13">
         <v>12</v>
       </c>
-      <c r="V13" s="40">
+      <c r="V13" s="39">
         <v>1000</v>
       </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="32">
+      <c r="W13" s="11">
+        <f t="dataTable" ref="W13:AA17" dt2D="1" dtr="1" r1="S13" r2="S11"/>
+        <v>2439.9947957574645</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2449.7209917349046</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>2452.9975135319551</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>2454.6423161692769</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>2455.6313016378313</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B14" s="31">
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
+      <c r="C14" s="24">
+        <v>5</v>
+      </c>
+      <c r="D14" s="25">
+        <v>10</v>
+      </c>
+      <c r="E14" s="25">
+        <v>15</v>
+      </c>
+      <c r="F14" s="25">
+        <v>20</v>
+      </c>
+      <c r="G14" s="25">
+        <v>25</v>
+      </c>
+      <c r="H14" s="25">
+        <v>30</v>
+      </c>
+      <c r="I14" s="25">
+        <v>35</v>
+      </c>
+      <c r="J14" s="25">
+        <v>40</v>
+      </c>
+      <c r="K14" s="25">
+        <v>45</v>
+      </c>
+      <c r="L14" s="25">
+        <v>50</v>
+      </c>
+      <c r="M14" s="25">
+        <v>55</v>
+      </c>
+      <c r="N14" s="26">
+        <v>60</v>
+      </c>
       <c r="R14" t="s">
         <v>854</v>
       </c>
       <c r="S14">
         <v>10</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="40">
         <v>2000</v>
       </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="32">
+      <c r="W14" s="11">
+        <v>4879.9895915149291</v>
+      </c>
+      <c r="X14" s="11">
+        <v>4899.4419834698092</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>4905.9950270639101</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>4909.2846323385538</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>4911.2626032756625</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B15" s="31">
         <v>6</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
-      <c r="V15" s="41">
+      <c r="C15" s="24">
+        <v>6</v>
+      </c>
+      <c r="D15" s="25">
+        <v>12</v>
+      </c>
+      <c r="E15" s="25">
+        <v>18</v>
+      </c>
+      <c r="F15" s="25">
+        <v>24</v>
+      </c>
+      <c r="G15" s="25">
+        <v>30</v>
+      </c>
+      <c r="H15" s="25">
+        <v>36</v>
+      </c>
+      <c r="I15" s="25">
+        <v>42</v>
+      </c>
+      <c r="J15" s="25">
+        <v>48</v>
+      </c>
+      <c r="K15" s="25">
+        <v>54</v>
+      </c>
+      <c r="L15" s="25">
+        <v>60</v>
+      </c>
+      <c r="M15" s="25">
+        <v>66</v>
+      </c>
+      <c r="N15" s="26">
+        <v>72</v>
+      </c>
+      <c r="V15" s="40">
         <v>3000</v>
       </c>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="32">
+      <c r="W15" s="11">
+        <v>7319.9843872723932</v>
+      </c>
+      <c r="X15" s="11">
+        <v>7349.1629752047138</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>7358.9925405958647</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>7363.9269485078303</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>7366.8939049134933</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B16" s="31">
         <v>7</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
+      <c r="C16" s="24">
+        <v>7</v>
+      </c>
+      <c r="D16" s="25">
+        <v>14</v>
+      </c>
+      <c r="E16" s="25">
+        <v>21</v>
+      </c>
+      <c r="F16" s="25">
+        <v>28</v>
+      </c>
+      <c r="G16" s="25">
+        <v>35</v>
+      </c>
+      <c r="H16" s="25">
+        <v>42</v>
+      </c>
+      <c r="I16" s="25">
+        <v>49</v>
+      </c>
+      <c r="J16" s="25">
+        <v>56</v>
+      </c>
+      <c r="K16" s="25">
+        <v>63</v>
+      </c>
+      <c r="L16" s="25">
+        <v>70</v>
+      </c>
+      <c r="M16" s="25">
+        <v>77</v>
+      </c>
+      <c r="N16" s="26">
+        <v>84</v>
+      </c>
       <c r="R16" t="s">
         <v>856</v>
       </c>
-      <c r="S16" s="37">
+      <c r="S16" s="36">
         <f>FV(S12/S13,S14*S13,,-S11)</f>
         <v>4902.7141562496363</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="40">
         <v>4000</v>
       </c>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="32">
+      <c r="W16" s="11">
+        <v>9759.9791830298582</v>
+      </c>
+      <c r="X16" s="11">
+        <v>9798.8839669396184</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>9811.9900541278203</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>9818.5692646771076</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>9822.525206551325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B17" s="31">
         <v>8</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
-      <c r="V17" s="41">
+      <c r="C17" s="24">
+        <v>8</v>
+      </c>
+      <c r="D17" s="25">
+        <v>16</v>
+      </c>
+      <c r="E17" s="25">
+        <v>24</v>
+      </c>
+      <c r="F17" s="25">
+        <v>32</v>
+      </c>
+      <c r="G17" s="25">
+        <v>40</v>
+      </c>
+      <c r="H17" s="25">
+        <v>48</v>
+      </c>
+      <c r="I17" s="25">
+        <v>56</v>
+      </c>
+      <c r="J17" s="25">
+        <v>64</v>
+      </c>
+      <c r="K17" s="25">
+        <v>72</v>
+      </c>
+      <c r="L17" s="25">
+        <v>80</v>
+      </c>
+      <c r="M17" s="25">
+        <v>88</v>
+      </c>
+      <c r="N17" s="26">
+        <v>96</v>
+      </c>
+      <c r="V17" s="40">
         <v>5000</v>
       </c>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="32">
+      <c r="W17" s="11">
+        <v>12199.973978787322</v>
+      </c>
+      <c r="X17" s="11">
+        <v>12248.604958674523</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>12264.987567659775</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>12273.211580846384</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>12278.156508189155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B18" s="31">
         <v>9</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="32">
+      <c r="C18" s="24">
+        <v>9</v>
+      </c>
+      <c r="D18" s="25">
+        <v>18</v>
+      </c>
+      <c r="E18" s="25">
+        <v>27</v>
+      </c>
+      <c r="F18" s="25">
+        <v>36</v>
+      </c>
+      <c r="G18" s="25">
+        <v>45</v>
+      </c>
+      <c r="H18" s="25">
+        <v>54</v>
+      </c>
+      <c r="I18" s="25">
+        <v>63</v>
+      </c>
+      <c r="J18" s="25">
+        <v>72</v>
+      </c>
+      <c r="K18" s="25">
+        <v>81</v>
+      </c>
+      <c r="L18" s="25">
+        <v>90</v>
+      </c>
+      <c r="M18" s="25">
+        <v>99</v>
+      </c>
+      <c r="N18" s="26">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B19" s="31">
         <v>10</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="32">
+      <c r="C19" s="24">
+        <v>10</v>
+      </c>
+      <c r="D19" s="25">
+        <v>20</v>
+      </c>
+      <c r="E19" s="25">
+        <v>30</v>
+      </c>
+      <c r="F19" s="25">
+        <v>40</v>
+      </c>
+      <c r="G19" s="25">
+        <v>50</v>
+      </c>
+      <c r="H19" s="25">
+        <v>60</v>
+      </c>
+      <c r="I19" s="25">
+        <v>70</v>
+      </c>
+      <c r="J19" s="25">
+        <v>80</v>
+      </c>
+      <c r="K19" s="25">
+        <v>90</v>
+      </c>
+      <c r="L19" s="25">
+        <v>100</v>
+      </c>
+      <c r="M19" s="25">
+        <v>110</v>
+      </c>
+      <c r="N19" s="26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B20" s="31">
         <v>11</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32">
+      <c r="C20" s="24">
+        <v>11</v>
+      </c>
+      <c r="D20" s="25">
+        <v>22</v>
+      </c>
+      <c r="E20" s="25">
+        <v>33</v>
+      </c>
+      <c r="F20" s="25">
+        <v>44</v>
+      </c>
+      <c r="G20" s="25">
+        <v>55</v>
+      </c>
+      <c r="H20" s="25">
+        <v>66</v>
+      </c>
+      <c r="I20" s="25">
+        <v>77</v>
+      </c>
+      <c r="J20" s="25">
+        <v>88</v>
+      </c>
+      <c r="K20" s="25">
+        <v>99</v>
+      </c>
+      <c r="L20" s="25">
+        <v>110</v>
+      </c>
+      <c r="M20" s="25">
+        <v>121</v>
+      </c>
+      <c r="N20" s="26">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="31">
         <v>12</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
+      <c r="C21" s="27">
+        <v>12</v>
+      </c>
+      <c r="D21" s="28">
+        <v>24</v>
+      </c>
+      <c r="E21" s="28">
+        <v>36</v>
+      </c>
+      <c r="F21" s="28">
+        <v>48</v>
+      </c>
+      <c r="G21" s="28">
+        <v>60</v>
+      </c>
+      <c r="H21" s="28">
+        <v>72</v>
+      </c>
+      <c r="I21" s="28">
+        <v>84</v>
+      </c>
+      <c r="J21" s="28">
+        <v>96</v>
+      </c>
+      <c r="K21" s="28">
+        <v>108</v>
+      </c>
+      <c r="L21" s="28">
+        <v>120</v>
+      </c>
+      <c r="M21" s="28">
+        <v>132</v>
+      </c>
+      <c r="N21" s="29">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7061,29 +7483,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>667</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>671</v>
       </c>
@@ -7094,7 +7516,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>672</v>
       </c>
@@ -7106,90 +7528,138 @@
         <v>IN PROGRESS</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>673</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>IF(C11,"COMPLETED","IN PROGRESS")</f>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>674</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:D19" si="0">IF(C12,"COMPLETED","IN PROGRESS")</f>
+        <v>IN PROGRESS</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>675</v>
       </c>
       <c r="C13" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>676</v>
       </c>
       <c r="C14" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>677</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>678</v>
       </c>
       <c r="C16" s="8">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>679</v>
       </c>
       <c r="C17" s="8">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>680</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>IN PROGRESS</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>681</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>682</v>
       </c>
       <c r="C20" s="8">
         <v>0.44</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(C20,"COMPLETED","IN PROGRESS")</f>
+        <v>COMPLETED</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C10:C20">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -7204,29 +7674,30 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>667</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>671</v>
       </c>
@@ -7240,180 +7711,184 @@
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>672</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f ca="1">TODAY()+2</f>
-        <v>44569</v>
+        <v>44666</v>
       </c>
       <c r="D10" s="8">
         <v>0.88</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED"))</f>
+        <f ca="1">_xlfn.CONCAT(IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
         <v>IN PROGRESS</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="16">
+        <f ca="1">TODAY()</f>
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>673</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <f ca="1">TODAY()+12</f>
-        <v>44579</v>
+        <v>44676</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ref="E11:E20" si="0">IF(D11=1, "COMPLETE", IF(D11&gt;0, "IN PROGRESS", "NOT STARTED"))</f>
+        <f ca="1">_xlfn.CONCAT(IF(D11=1, "COMPLETE", IF(D11&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
         <v>COMPLETE</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>674</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <f ca="1">TODAY()-3</f>
-        <v>44564</v>
+        <v>44661</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT(IF(D12=1, "COMPLETE", IF(D12&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
+        <v>NOT STARTED - PAST DUE</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>675</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <f ca="1">TODAY()+10</f>
-        <v>44577</v>
+        <v>44674</v>
       </c>
       <c r="D13" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f ca="1">_xlfn.CONCAT(IF(D13=1, "COMPLETE", IF(D13&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
         <v>IN PROGRESS</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <f ca="1">TODAY()+1</f>
-        <v>44568</v>
+        <v>44665</v>
       </c>
       <c r="D14" s="8">
         <v>0.1</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f ca="1">_xlfn.CONCAT(IF(D14=1, "COMPLETE", IF(D14&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
         <v>IN PROGRESS</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>677</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <f ca="1">TODAY()-5</f>
-        <v>44562</v>
+        <v>44659</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>COMPLETE</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT(IF(D15=1, "COMPLETE", IF(D15&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
+        <v>COMPLETE - PAST DUE</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>678</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f ca="1">TODAY()+2</f>
-        <v>44569</v>
+        <v>44666</v>
       </c>
       <c r="D16" s="8">
         <v>0.95</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f ca="1">_xlfn.CONCAT(IF(D16=1, "COMPLETE", IF(D16&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
         <v>IN PROGRESS</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>679</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f ca="1">TODAY()+12</f>
-        <v>44579</v>
+        <v>44676</v>
       </c>
       <c r="D17" s="8">
         <v>0.43</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f ca="1">_xlfn.CONCAT(IF(D17=1, "COMPLETE", IF(D17&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
         <v>IN PROGRESS</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>680</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f ca="1">TODAY()-1</f>
-        <v>44566</v>
+        <v>44663</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT(IF(D18=1, "COMPLETE", IF(D18&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
+        <v>NOT STARTED - PAST DUE</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>681</v>
       </c>
-      <c r="C19" s="17">
-        <f t="shared" ref="C19" ca="1" si="1">TODAY()+12</f>
-        <v>44579</v>
+      <c r="C19" s="16">
+        <f t="shared" ref="C19" ca="1" si="0">TODAY()+12</f>
+        <v>44676</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f ca="1">_xlfn.CONCAT(IF(D19=1, "COMPLETE", IF(D19&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
         <v>COMPLETE</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>682</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <f ca="1">TODAY()-3</f>
-        <v>44564</v>
+        <v>44661</v>
       </c>
       <c r="D20" s="8">
         <v>0.44</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>IN PROGRESS</v>
+        <f ca="1">_xlfn.CONCAT(IF(D20=1, "COMPLETE", IF(D20&gt;0, "IN PROGRESS", "NOT STARTED")),IF(Table28[[#This Row],[DUE DATE]]&lt;TODAY(), " - PAST DUE", ""))</f>
+        <v>IN PROGRESS - PAST DUE</v>
       </c>
     </row>
   </sheetData>
@@ -7437,37 +7912,37 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>668</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.5">
       <c r="B8" s="6" t="s">
         <v>659</v>
       </c>
@@ -7490,24 +7965,36 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP(B9,CustomerInfo[#All],2,FALSE)</f>
-        <v>Alfreds Futterkiste</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>Bottom-Dollar Markets</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>VLOOKUP($B$9,'CUSTOMER INFO'!$A$1:$J$92,4,FALSE)</f>
+        <v>23 Tsawassen Blvd.</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>VLOOKUP($B$9,'CUSTOMER INFO'!$A$1:$J$92,5,FALSE)</f>
+        <v>Tsawassen</v>
+      </c>
       <c r="H9" s="5" t="str">
-        <f>VLOOKUP(B9,CustomerInfo[#All],6,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+        <f>VLOOKUP($B$9,'CUSTOMER INFO'!$A$1:$J$92,6,FALSE)</f>
+        <v>BC</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>VLOOKUP($B$9,'CUSTOMER INFO'!$A$1:$J$92,7,FALSE)</f>
+        <v>T2F 8M4</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>VLOOKUP($B$9,'CUSTOMER INFO'!$A$1:$J$92,8,FALSE)</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D11" s="4" t="s">
         <v>661</v>
       </c>
@@ -7515,9 +8002,15 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="str">
+        <f>VLOOKUP($B$9,'CUSTOMER INFO'!$A$1:$J$92,3,FALSE)</f>
+        <v>Elizabeth Lincoln</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>VLOOKUP($B$9,'CUSTOMER INFO'!$A$1:$J$92,9,FALSE)</f>
+        <v>(604) 555-4729</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7527,6 +8020,27 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{25760110-27E7-484F-B0C6-0837FDE4FD02}">
+            <xm:f>NOT(ISERROR(SEARCH("Canada",J9)))</xm:f>
+            <xm:f>"Canada"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29D66EEB-98C7-41B4-91DB-89D2BF6B19A6}">
@@ -7550,34 +8064,34 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>843</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.5">
       <c r="B8" s="6" t="s">
         <v>659</v>
       </c>
@@ -7600,34 +8114,60 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>INDEX(CustomerInfo[[#All],[Company Name]],MATCH('INDEX MATCH FUNCTION Practice'!$B$9,CustomerInfo[[#All],[Customer ID]],0))</f>
-        <v>Around the Horn</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>Bottom-Dollar Markets</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>INDEX(CustomerInfo[],MATCH($B$9,CustomerInfo[Customer ID],0),MATCH(F8,CustomerInfo[#Headers],0))</f>
+        <v>23 Tsawassen Blvd.</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>INDEX(CustomerInfo[],MATCH($B$9,'CUSTOMER INFO'!$A$2:$A$92,0),MATCH(G8,CustomerInfo[#Headers],0))</f>
+        <v>Tsawassen</v>
+      </c>
       <c r="H9" s="5" t="str">
-        <f>VLOOKUP(B9,CustomerInfo[#All],6,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+        <f>INDEX(CustomerInfo[],MATCH($B$9,'CUSTOMER INFO'!$A$2:$A$92,0),MATCH(H8,CustomerInfo[#Headers],0))</f>
+        <v>BC</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>INDEX(CustomerInfo[],MATCH($B$9,'CUSTOMER INFO'!$A$2:$A$92,0),MATCH(I8,CustomerInfo[#Headers],0))</f>
+        <v>T2F 8M4</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>INDEX(CustomerInfo[],MATCH($B$9,'CUSTOMER INFO'!$A$2:$A$92,0),MATCH(J8,CustomerInfo[#Headers],0))</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D11" s="4" t="s">
         <v>661</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="G11" t="str">
+        <f>INDEX(CustomerInfo[[Contact Name]:[Phone]], 1,1)</f>
+        <v>Maria Anders</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="str">
+        <f>INDEX(CustomerInfo[],MATCH($B$9,'CUSTOMER INFO'!$A$2:$A$92,0),MATCH(D11,CustomerInfo[#Headers],0))</f>
+        <v>Elizabeth Lincoln</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>INDEX(CustomerInfo[],MATCH($B$9,'CUSTOMER INFO'!$A$2:$A$92,0),MATCH(F11,CustomerInfo[#Headers],0))</f>
+        <v>(604) 555-4729</v>
+      </c>
+      <c r="G12">
+        <f>MATCH(B9,CustomerInfo[Customer ID],0)</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7656,23 +8196,23 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>650</v>
       </c>
@@ -7701,7 +8241,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7730,7 +8270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7759,7 +8299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7788,7 +8328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -7817,7 +8357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -7846,7 +8386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -7875,7 +8415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -7904,7 +8444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -7933,7 +8473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -7962,7 +8502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -7991,7 +8531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
@@ -8020,7 +8560,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -8049,7 +8589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -8078,7 +8618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -8107,7 +8647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -8136,7 +8676,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
@@ -8165,7 +8705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -8194,7 +8734,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
@@ -8223,7 +8763,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
@@ -8252,7 +8792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -8281,7 +8821,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -8310,7 +8850,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>155</v>
       </c>
@@ -8339,7 +8879,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
@@ -8368,7 +8908,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
@@ -8397,7 +8937,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -8426,7 +8966,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>182</v>
       </c>
@@ -8455,7 +8995,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
@@ -8484,7 +9024,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>195</v>
       </c>
@@ -8513,7 +9053,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -8542,7 +9082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
@@ -8571,7 +9111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>217</v>
       </c>
@@ -8600,7 +9140,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>224</v>
       </c>
@@ -8629,7 +9169,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>233</v>
       </c>
@@ -8658,7 +9198,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>242</v>
       </c>
@@ -8687,7 +9227,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>250</v>
       </c>
@@ -8716,7 +9256,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>258</v>
       </c>
@@ -8745,7 +9285,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>265</v>
       </c>
@@ -8774,7 +9314,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>273</v>
       </c>
@@ -8803,7 +9343,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>281</v>
       </c>
@@ -8832,7 +9372,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>288</v>
       </c>
@@ -8861,7 +9401,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>295</v>
       </c>
@@ -8890,7 +9430,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>302</v>
       </c>
@@ -8919,7 +9459,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>309</v>
       </c>
@@ -8948,7 +9488,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>317</v>
       </c>
@@ -8977,7 +9517,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>324</v>
       </c>
@@ -9006,7 +9546,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>332</v>
       </c>
@@ -9035,7 +9575,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>340</v>
       </c>
@@ -9064,7 +9604,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>348</v>
       </c>
@@ -9093,7 +9633,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>355</v>
       </c>
@@ -9122,7 +9662,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -9151,7 +9691,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>370</v>
       </c>
@@ -9180,7 +9720,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>378</v>
       </c>
@@ -9209,7 +9749,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>385</v>
       </c>
@@ -9238,7 +9778,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>391</v>
       </c>
@@ -9267,7 +9807,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>396</v>
       </c>
@@ -9296,7 +9836,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>404</v>
       </c>
@@ -9325,7 +9865,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>411</v>
       </c>
@@ -9354,7 +9894,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>418</v>
       </c>
@@ -9383,7 +9923,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>424</v>
       </c>
@@ -9412,7 +9952,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>431</v>
       </c>
@@ -9441,7 +9981,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>437</v>
       </c>
@@ -9470,7 +10010,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>443</v>
       </c>
@@ -9499,7 +10039,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>449</v>
       </c>
@@ -9528,7 +10068,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>456</v>
       </c>
@@ -9557,7 +10097,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>461</v>
       </c>
@@ -9586,7 +10126,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>469</v>
       </c>
@@ -9615,7 +10155,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>476</v>
       </c>
@@ -9644,7 +10184,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>482</v>
       </c>
@@ -9673,7 +10213,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>489</v>
       </c>
@@ -9702,7 +10242,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>495</v>
       </c>
@@ -9731,7 +10271,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>503</v>
       </c>
@@ -9760,7 +10300,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>511</v>
       </c>
@@ -9789,7 +10329,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>517</v>
       </c>
@@ -9818,7 +10358,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>525</v>
       </c>
@@ -9847,7 +10387,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>531</v>
       </c>
@@ -9876,7 +10416,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>539</v>
       </c>
@@ -9905,7 +10445,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>546</v>
       </c>
@@ -9934,7 +10474,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>552</v>
       </c>
@@ -9963,7 +10503,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>560</v>
       </c>
@@ -9992,7 +10532,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>567</v>
       </c>
@@ -10021,7 +10561,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>572</v>
       </c>
@@ -10050,7 +10590,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>578</v>
       </c>
@@ -10079,7 +10619,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>585</v>
       </c>
@@ -10108,7 +10648,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>592</v>
       </c>
@@ -10137,7 +10677,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>599</v>
       </c>
@@ -10166,7 +10706,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>606</v>
       </c>
@@ -10195,7 +10735,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>613</v>
       </c>
@@ -10224,7 +10764,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>621</v>
       </c>
@@ -10253,7 +10793,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>628</v>
       </c>
@@ -10282,7 +10822,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>635</v>
       </c>
@@ -10311,7 +10851,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>642</v>
       </c>
@@ -10353,31 +10893,33 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>687</v>
       </c>
@@ -10400,7 +10942,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>690</v>
       </c>
@@ -10420,43 +10962,190 @@
         <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
         <v>01</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H11" t="str">
+        <f>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</f>
+        <v>EXCEL</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f>LEFT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>WD</v>
+      </c>
+      <c r="D12" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],4,2)</f>
+        <v>SL</v>
+      </c>
+      <c r="E12" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],7,4)</f>
+        <v>2019</v>
+      </c>
+      <c r="F12" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>01</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H12" t="str">
+        <f>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</f>
+        <v>WORD</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>711</v>
       </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f>LEFT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>EX</v>
+      </c>
+      <c r="D13" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],4,2)</f>
+        <v>SL</v>
+      </c>
+      <c r="E13" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],7,4)</f>
+        <v>2020</v>
+      </c>
+      <c r="F13" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>02</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</f>
+        <v>INTERMEDIATE</v>
+      </c>
+      <c r="H13" t="str">
+        <f>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</f>
+        <v>EXCEL</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>713</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>LEFT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>AC</v>
+      </c>
+      <c r="D14" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],4,2)</f>
+        <v>LA</v>
+      </c>
+      <c r="E14" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],7,4)</f>
+        <v>2020</v>
+      </c>
+      <c r="F14" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>01</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H14" t="str">
+        <f>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</f>
+        <v>ACCESS</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>714</v>
       </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>LEFT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>EX</v>
+      </c>
+      <c r="D15" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],4,2)</f>
+        <v>SL</v>
+      </c>
+      <c r="E15" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],7,4)</f>
+        <v>2020</v>
+      </c>
+      <c r="F15" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>03</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</f>
+        <v>ADVANCED</v>
+      </c>
+      <c r="H15" t="str">
+        <f>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</f>
+        <v>EXCEL</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>715</v>
       </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f>LEFT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>OU</v>
+      </c>
+      <c r="D16" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],4,2)</f>
+        <v>SF</v>
+      </c>
+      <c r="E16" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],7,4)</f>
+        <v>2019</v>
+      </c>
+      <c r="F16" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>01</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H16" t="str">
+        <f>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</f>
+        <v>OUTLOOK</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>716</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>LEFT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>PP</v>
+      </c>
+      <c r="D17" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],4,2)</f>
+        <v>SL</v>
+      </c>
+      <c r="E17" t="str">
+        <f>MID(Table3[[#This Row],[TRAINING CODE]],7,4)</f>
+        <v>2019</v>
+      </c>
+      <c r="F17" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>02</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[LEVEL CODE]],Table4[],2,FALSE)</f>
+        <v>INTERMEDIATE</v>
+      </c>
+      <c r="H17" t="str">
+        <f>INDEX(Table46[], MATCH(Table3[[#This Row],[CLASS]],Table46[CLASS CODE],0),2)</f>
+        <v>POWERPOINT</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>699</v>
       </c>
@@ -10470,7 +11159,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>691</v>
       </c>
@@ -10484,7 +11173,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
         <v>692</v>
       </c>
@@ -10498,7 +11187,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
         <v>693</v>
       </c>
@@ -10512,7 +11201,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
         <v>698</v>
       </c>
@@ -10526,7 +11215,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E30" s="9" t="s">
         <v>702</v>
       </c>
@@ -10557,30 +11246,32 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:J127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>717</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>733</v>
       </c>
@@ -10593,24 +11284,24 @@
       <c r="E7" t="s">
         <v>735</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>159220819</v>
       </c>
       <c r="D8">
@@ -10619,16 +11310,26 @@
       <c r="E8" t="s">
         <v>838</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="G8" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2019</v>
+      </c>
+      <c r="I8" s="15">
+        <f>SUMIF(Table6[YEAR],H8,Table6[GROSS])</f>
+        <v>5053906647</v>
+      </c>
+      <c r="J8" s="15">
+        <f>COUNTIF(Table6[RATING], G8)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>191719337</v>
       </c>
       <c r="D9">
@@ -10638,11 +11339,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>210614939</v>
       </c>
       <c r="D10">
@@ -10652,11 +11353,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>215288866</v>
       </c>
       <c r="D11">
@@ -10666,11 +11367,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>172956409</v>
       </c>
       <c r="D12">
@@ -10680,11 +11381,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>729</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>217350219</v>
       </c>
       <c r="D13">
@@ -10694,11 +11395,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>355559216</v>
       </c>
       <c r="D14">
@@ -10708,11 +11409,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>334191110</v>
       </c>
       <c r="D15">
@@ -10722,11 +11423,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>350126372</v>
       </c>
       <c r="D16">
@@ -10736,11 +11437,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>760507625</v>
       </c>
       <c r="D17">
@@ -10750,11 +11451,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>459005868</v>
       </c>
       <c r="D18">
@@ -10764,11 +11465,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>858373000</v>
       </c>
       <c r="D19">
@@ -10778,11 +11479,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>678815482</v>
       </c>
       <c r="D20">
@@ -10792,11 +11493,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>204380071</v>
       </c>
       <c r="D21">
@@ -10806,11 +11507,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>728</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>218967620</v>
       </c>
       <c r="D22">
@@ -10820,11 +11521,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>504014165</v>
       </c>
       <c r="D23">
@@ -10834,11 +11535,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>234760478</v>
       </c>
       <c r="D24">
@@ -10848,11 +11549,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>700059566</v>
       </c>
       <c r="D25">
@@ -10862,11 +11563,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>169106725</v>
       </c>
       <c r="D26">
@@ -10876,11 +11577,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>408084349</v>
       </c>
       <c r="D27">
@@ -10890,11 +11591,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>426829839</v>
       </c>
       <c r="D28">
@@ -10904,11 +11605,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>725</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>244082982</v>
       </c>
       <c r="D29">
@@ -10918,11 +11619,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>732</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>191452396</v>
       </c>
       <c r="D30">
@@ -10932,11 +11633,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>363070709</v>
       </c>
       <c r="D31">
@@ -10946,11 +11647,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>324591735</v>
       </c>
       <c r="D32">
@@ -10960,11 +11661,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>368065385</v>
       </c>
       <c r="D33">
@@ -10974,11 +11675,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>162805434</v>
       </c>
       <c r="D34">
@@ -10988,11 +11689,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>435110554</v>
       </c>
       <c r="D35">
@@ -11002,11 +11703,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>156645693</v>
       </c>
       <c r="D36">
@@ -11016,11 +11717,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>166167230</v>
       </c>
       <c r="D37">
@@ -11030,11 +11731,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>486295561</v>
       </c>
       <c r="D38">
@@ -11044,11 +11745,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>721</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>380843261</v>
       </c>
       <c r="D39">
@@ -11058,11 +11759,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>400738009</v>
       </c>
       <c r="D40">
@@ -11072,11 +11773,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>477371890</v>
       </c>
       <c r="D41">
@@ -11086,11 +11787,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>353007020</v>
       </c>
       <c r="D42">
@@ -11100,11 +11801,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>176040665</v>
       </c>
       <c r="D43">
@@ -11114,11 +11815,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>187705427</v>
       </c>
       <c r="D44">
@@ -11128,11 +11829,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>167767189</v>
       </c>
       <c r="D45">
@@ -11142,11 +11843,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>731</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>200852579</v>
       </c>
       <c r="D46">
@@ -11156,11 +11857,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>389813101</v>
       </c>
       <c r="D47">
@@ -11170,11 +11871,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>159342015</v>
       </c>
       <c r="D48">
@@ -11184,11 +11885,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>165092268</v>
       </c>
       <c r="D49">
@@ -11198,11 +11899,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>381409310</v>
       </c>
       <c r="D50">
@@ -11212,11 +11913,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="11" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>302305431</v>
       </c>
       <c r="D51">
@@ -11226,11 +11927,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>318087620</v>
       </c>
       <c r="D52">
@@ -11240,11 +11941,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>608581744</v>
       </c>
       <c r="D53">
@@ -11254,11 +11955,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>356461711</v>
       </c>
       <c r="D54">
@@ -11268,11 +11969,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>409013994</v>
       </c>
       <c r="D55">
@@ -11282,11 +11983,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>328828874</v>
       </c>
       <c r="D56">
@@ -11296,11 +11997,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>211593228</v>
       </c>
       <c r="D57">
@@ -11310,11 +12011,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>153952592</v>
       </c>
       <c r="D58">
@@ -11324,11 +12025,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>171015687</v>
       </c>
       <c r="D59">
@@ -11338,11 +12039,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>335451311</v>
       </c>
       <c r="D60">
@@ -11352,11 +12053,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>404540171</v>
       </c>
       <c r="D61">
@@ -11366,11 +12067,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>402828120</v>
       </c>
       <c r="D62">
@@ -11380,11 +12081,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>652270625</v>
       </c>
       <c r="D63">
@@ -11394,11 +12095,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>417719760</v>
       </c>
       <c r="D64">
@@ -11408,11 +12109,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>226277068</v>
       </c>
       <c r="D65">
@@ -11422,11 +12123,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>154058340</v>
       </c>
       <c r="D66">
@@ -11436,11 +12137,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>336045770</v>
       </c>
       <c r="D67">
@@ -11450,11 +12151,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>723</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>268492764</v>
       </c>
       <c r="D68">
@@ -11464,11 +12165,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>722</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>289916256</v>
       </c>
       <c r="D69">
@@ -11478,11 +12179,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="11" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>423315812</v>
       </c>
       <c r="D70">
@@ -11492,11 +12193,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="11">
         <v>178406268</v>
       </c>
       <c r="D71">
@@ -11506,11 +12207,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="11" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>172825435</v>
       </c>
       <c r="D72">
@@ -11520,11 +12221,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>730</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <v>206445654</v>
       </c>
       <c r="D73">
@@ -11534,11 +12235,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="11" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="11">
         <v>532177324</v>
       </c>
       <c r="D74">
@@ -11548,11 +12249,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <v>217049603</v>
       </c>
       <c r="D75">
@@ -11562,11 +12263,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="11" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="11">
         <v>157019771</v>
       </c>
       <c r="D76">
@@ -11576,11 +12277,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="11" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <v>441226247</v>
       </c>
       <c r="D77">
@@ -11590,11 +12291,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="11" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="11">
         <v>322719944</v>
       </c>
       <c r="D78">
@@ -11604,11 +12305,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="11">
         <v>407022860</v>
       </c>
       <c r="D79">
@@ -11618,11 +12319,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="11" t="s">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B80" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="11">
         <v>373585825</v>
       </c>
       <c r="D80">
@@ -11632,11 +12333,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="11" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>390532085</v>
       </c>
       <c r="D81">
@@ -11646,11 +12347,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <v>474544677</v>
       </c>
       <c r="D82">
@@ -11660,11 +12361,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="11">
         <v>310676740</v>
       </c>
       <c r="D83">
@@ -11674,11 +12375,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="11" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B84" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="11">
         <v>380270577</v>
       </c>
       <c r="D84">
@@ -11688,11 +12389,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="11" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>460998507</v>
       </c>
       <c r="D85">
@@ -11702,11 +12403,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="11" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="11">
         <v>515198941</v>
       </c>
       <c r="D86">
@@ -11716,11 +12417,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="11" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="11">
         <v>309306177</v>
       </c>
       <c r="D87">
@@ -11730,11 +12431,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="11">
         <v>936662225</v>
       </c>
       <c r="D88">
@@ -11744,11 +12445,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="11" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="11">
         <v>620181382</v>
       </c>
       <c r="D89">
@@ -11758,11 +12459,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="11">
         <v>161197785</v>
       </c>
       <c r="D90">
@@ -11772,11 +12473,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="11" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <v>218815487</v>
       </c>
       <c r="D91">
@@ -11786,11 +12487,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="11" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="11">
         <v>205881154</v>
       </c>
       <c r="D92">
@@ -11800,11 +12501,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="11" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B93" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="11">
         <v>623357910</v>
       </c>
       <c r="D93">
@@ -11814,11 +12515,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="11" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B94" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="11">
         <v>535234033</v>
       </c>
       <c r="D94">
@@ -11828,11 +12529,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="11" t="s">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B95" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="11">
         <v>448139099</v>
       </c>
       <c r="D95">
@@ -11842,11 +12543,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="11" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B96" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="11">
         <v>232906145</v>
       </c>
       <c r="D96">
@@ -11856,11 +12557,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="11" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B97" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="11">
         <v>158348367</v>
       </c>
       <c r="D97">
@@ -11870,11 +12571,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="11" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="11">
         <v>277322503</v>
       </c>
       <c r="D98">
@@ -11884,11 +12585,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="11" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B99" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="11">
         <v>254464305</v>
       </c>
       <c r="D99">
@@ -11898,11 +12599,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="11" t="s">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="11">
         <v>159582188</v>
       </c>
       <c r="D100">
@@ -11912,11 +12613,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B101" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="11">
         <v>408010692</v>
       </c>
       <c r="D101">
@@ -11926,11 +12627,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B102" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="11">
         <v>424668047</v>
       </c>
       <c r="D102">
@@ -11940,11 +12641,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="11" t="s">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B103" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="11">
         <v>337135885</v>
       </c>
       <c r="D103">
@@ -11954,11 +12655,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="11" t="s">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B104" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="11">
         <v>364001123</v>
       </c>
       <c r="D104">
@@ -11968,11 +12669,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>719</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="11">
         <v>422783777</v>
       </c>
       <c r="D105">
@@ -11982,11 +12683,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="11" t="s">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B106" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="11">
         <v>543638043</v>
       </c>
       <c r="D106">
@@ -11996,11 +12697,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="11" t="s">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B107" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="11">
         <v>377845905</v>
       </c>
       <c r="D107">
@@ -12010,11 +12711,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="11" t="s">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B108" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="11">
         <v>342551365</v>
       </c>
       <c r="D108">
@@ -12024,11 +12725,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="11" t="s">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B109" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="11">
         <v>171479930</v>
       </c>
       <c r="D109">
@@ -12038,11 +12739,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="11" t="s">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B110" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="11">
         <v>281576461</v>
       </c>
       <c r="D110">
@@ -12052,11 +12753,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="11" t="s">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B111" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="11">
         <v>370782930</v>
       </c>
       <c r="D111">
@@ -12066,11 +12767,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="11" t="s">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B112" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="11">
         <v>183637894</v>
       </c>
       <c r="D112">
@@ -12080,11 +12781,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="11" t="s">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B113" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="11">
         <v>368384330</v>
       </c>
       <c r="D113">
@@ -12094,11 +12795,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="11" t="s">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B114" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="11">
         <v>176484651</v>
       </c>
       <c r="D114">
@@ -12108,11 +12809,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="11" t="s">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B115" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="11">
         <v>659363944</v>
       </c>
       <c r="D115">
@@ -12122,11 +12823,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>727</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="11">
         <v>222498679</v>
       </c>
       <c r="D116">
@@ -12136,11 +12837,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>724</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="11">
         <v>245852179</v>
       </c>
       <c r="D117">
@@ -12150,11 +12851,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>720</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="11">
         <v>415004880</v>
       </c>
       <c r="D118">
@@ -12164,11 +12865,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>718</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="11">
         <v>434038008</v>
       </c>
       <c r="D119">
@@ -12178,11 +12879,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="11" t="s">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="11">
         <v>352390543</v>
       </c>
       <c r="D120">
@@ -12192,11 +12893,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="11" t="s">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B121" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="11">
         <v>402111870</v>
       </c>
       <c r="D121">
@@ -12206,11 +12907,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="11" t="s">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B122" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="11">
         <v>293004164</v>
       </c>
       <c r="D122">
@@ -12220,11 +12921,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="11" t="s">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="11">
         <v>175084580</v>
       </c>
       <c r="D123">
@@ -12234,11 +12935,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>726</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="11">
         <v>223808164</v>
       </c>
       <c r="D124">
@@ -12248,11 +12949,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="11" t="s">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B125" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="11">
         <v>209255921</v>
       </c>
       <c r="D125">
@@ -12262,11 +12963,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="11" t="s">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B126" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="11">
         <v>412563408</v>
       </c>
       <c r="D126">
@@ -12276,11 +12977,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B127" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="11">
         <v>341268248</v>
       </c>
       <c r="D127">
@@ -12295,6 +12996,11 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{0B5F1973-7B54-4E5A-8F1A-2FB09590F54A}">
+      <formula1>"R, G, PG, PG-13"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D53" r:id="rId1" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_1" xr:uid="{40A87CB3-DEE4-41E3-92CE-A890D8DC5CAB}"/>
     <hyperlink ref="D106" r:id="rId2" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_2" xr:uid="{DE2185E5-10B5-4B13-82FD-AE34A5659279}"/>
@@ -12418,114 +13124,125 @@
       <selection activeCell="F10" sqref="F10:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="42" t="s">
         <v>850</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-    </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="43" t="s">
         <v>855</v>
       </c>
-      <c r="C8" s="44"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="35" t="s">
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F9" s="34" t="s">
         <v>857</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>851</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2000</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="37">
+      <c r="F10" s="33"/>
+      <c r="G10" s="36">
         <f>FV(C11/C12,C13*C12,,-C10)</f>
         <v>4902.7141562496363</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>852</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>0.09</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1000</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G11" s="11">
+        <f t="dataTable" ref="G11:G15" dt2D="0" dtr="0" r1="C10"/>
+        <v>2451.3570781248181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>853</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>2000</v>
       </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="11">
+        <v>4902.7141562496363</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>854</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>3000</v>
       </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F14" s="12">
+      <c r="G13" s="11">
+        <v>7354.0712343744535</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F14" s="11">
         <v>4000</v>
       </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="11">
+        <v>9805.4283124992726</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>856</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <f>FV(C11/C12,C13*C12,,-C10)</f>
         <v>4902.7141562496363</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>5000</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11">
+        <v>12256.785390624089</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
